--- a/raw-data/cornell_weed_seeds_2023.xlsx
+++ b/raw-data/cornell_weed_seeds_2023.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE442D8-C225-C54F-B825-C05897C9CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{695F0EFD-9773-574D-86EA-97B6D919A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="-27260" windowWidth="27660" windowHeight="16960" xr2:uid="{D046261D-A387-7D40-92CB-EE597276D6E7}"/>
+    <workbookView xWindow="18620" yWindow="-21100" windowWidth="27660" windowHeight="16960" xr2:uid="{D046261D-A387-7D40-92CB-EE597276D6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -611,7 +612,7 @@
   <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
